--- a/OFAC_format.xlsx
+++ b/OFAC_format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wasia\Desktop\OFAC data listing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56EF388-7605-4EEB-829A-EC6EE81A7459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645BEA05-5B46-408A-BF78-5A7861552AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{396AC92A-F138-4640-A8A4-5319086A4F9E}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="252">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="258">
   <si>
     <t>uid</t>
   </si>
@@ -777,27 +774,47 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>UK SECO UN EU</t>
-  </si>
-  <si>
-    <t>Iden</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>full name</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>sanction_authority_subject_ids_1</t>
+  </si>
+  <si>
+    <t>sanction_authority_subject_ids_2</t>
+  </si>
+  <si>
+    <t>UK Group ID</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFAC Related </t>
+  </si>
+  <si>
+    <t>4 states</t>
+  </si>
+  <si>
+    <t>Ofac Country</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>OFAC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
@@ -809,6 +826,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -821,21 +839,18 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -843,23 +858,21 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -880,38 +893,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -934,8 +917,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -996,84 +979,88 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1386,773 +1373,798 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CD6721-8B0C-41E7-A699-F6541718279B}">
-  <dimension ref="A1:IS1"/>
+  <dimension ref="A1:JF1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="IG1" workbookViewId="0">
-      <selection activeCell="IS2" sqref="IS2"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="II5" sqref="II5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:253" ht="60" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:266" ht="60" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AA1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AB1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AC1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AD1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AE1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AK1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AM1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AU1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="11" t="s">
+      <c r="AV1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="10" t="s">
+      <c r="AW1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AX1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="AY1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="12" t="s">
+      <c r="BA1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="12" t="s">
+      <c r="BB1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="12" t="s">
+      <c r="BC1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="12" t="s">
+      <c r="BD1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="10" t="s">
+      <c r="BE1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="10" t="s">
+      <c r="BF1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BH1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BI1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="6" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="10" t="s">
+      <c r="BK1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="7" t="s">
+      <c r="BL1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BR1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="5" t="s">
+      <c r="BS1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="7" t="s">
+      <c r="BT1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="13" t="s">
+      <c r="BU1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="10" t="s">
+      <c r="BV1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="10" t="s">
+      <c r="BW1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="7" t="s">
+      <c r="BX1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="7" t="s">
+      <c r="BY1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="7" t="s">
+      <c r="BZ1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="7" t="s">
+      <c r="CA1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="7" t="s">
+      <c r="CB1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="7" t="s">
+      <c r="CC1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="7" t="s">
+      <c r="CD1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="10" t="s">
+      <c r="CE1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="10" t="s">
+      <c r="CF1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="10" t="s">
+      <c r="CG1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CH1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="6" t="s">
+      <c r="CI1" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="CJ1" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="CK1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="7" t="s">
+      <c r="CL1" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="14" t="s">
+      <c r="CM1" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="15" t="s">
+      <c r="CN1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="16" t="s">
+      <c r="CO1" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="6" t="s">
+      <c r="CP1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="6" t="s">
+      <c r="CQ1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="17" t="s">
+      <c r="CR1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="17" t="s">
+      <c r="CS1" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="17" t="s">
+      <c r="CT1" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="17" t="s">
+      <c r="CU1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="17" t="s">
+      <c r="CV1" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="17" t="s">
+      <c r="CW1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="6" t="s">
+      <c r="CX1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="6" t="s">
+      <c r="CY1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="5" t="s">
+      <c r="CZ1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="7" t="s">
+      <c r="DA1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="7" t="s">
+      <c r="DB1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="10" t="s">
+      <c r="DC1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="10" t="s">
+      <c r="DD1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="10" t="s">
+      <c r="DE1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="10" t="s">
+      <c r="DF1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="10" t="s">
+      <c r="DG1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="10" t="s">
+      <c r="DH1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="10" t="s">
+      <c r="DI1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="10" t="s">
+      <c r="DJ1" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="10" t="s">
+      <c r="DK1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="10" t="s">
+      <c r="DL1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="10" t="s">
+      <c r="DM1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="10" t="s">
+      <c r="DN1" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="10" t="s">
+      <c r="DO1" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="10" t="s">
+      <c r="DP1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" s="10" t="s">
+      <c r="DQ1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" s="10" t="s">
+      <c r="DR1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" s="10" t="s">
+      <c r="DS1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" s="10" t="s">
+      <c r="DT1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" s="10" t="s">
+      <c r="DU1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" s="10" t="s">
+      <c r="DV1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" s="10" t="s">
+      <c r="DW1" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" s="10" t="s">
+      <c r="DX1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" s="10" t="s">
+      <c r="DY1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" s="10" t="s">
+      <c r="DZ1" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" s="10" t="s">
+      <c r="EA1" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="10" t="s">
+      <c r="EB1" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" s="10" t="s">
+      <c r="EC1" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" s="10" t="s">
+      <c r="ED1" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" s="10" t="s">
+      <c r="EE1" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" s="10" t="s">
+      <c r="EF1" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" s="10" t="s">
+      <c r="EG1" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" s="10" t="s">
+      <c r="EH1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" s="10" t="s">
+      <c r="EI1" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" s="10" t="s">
+      <c r="EJ1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" s="10" t="s">
+      <c r="EK1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" s="10" t="s">
+      <c r="EL1" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" s="10" t="s">
+      <c r="EM1" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" s="10" t="s">
+      <c r="EN1" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" s="10" t="s">
+      <c r="EO1" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" s="10" t="s">
+      <c r="EP1" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" s="10" t="s">
+      <c r="EQ1" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" s="10" t="s">
+      <c r="ER1" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" s="10" t="s">
+      <c r="ES1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" s="4" t="s">
+      <c r="ET1" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="ER1" s="10" t="s">
+      <c r="EU1" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="ES1" s="10" t="s">
+      <c r="EV1" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="ET1" s="10" t="s">
+      <c r="EW1" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" s="10" t="s">
+      <c r="EX1" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="EV1" s="10" t="s">
+      <c r="EY1" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" s="10" t="s">
+      <c r="EZ1" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" s="7" t="s">
+      <c r="FA1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" s="6" t="s">
+      <c r="FB1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" s="4" t="s">
+      <c r="FC1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="FA1" s="4" t="s">
+      <c r="FD1" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="FB1" s="4" t="s">
+      <c r="FE1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="FC1" s="4" t="s">
+      <c r="FF1" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="FD1" s="10" t="s">
+      <c r="FG1" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="FE1" s="10" t="s">
+      <c r="FH1" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="FF1" s="10" t="s">
+      <c r="FI1" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="FG1" s="12" t="s">
+      <c r="FJ1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="FH1" s="12" t="s">
+      <c r="FK1" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="FI1" s="12" t="s">
+      <c r="FL1" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="FJ1" s="10" t="s">
+      <c r="FM1" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="FK1" s="18" t="s">
+      <c r="FN1" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="FL1" s="10" t="s">
+      <c r="FO1" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="FM1" s="10" t="s">
+      <c r="FP1" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="FN1" s="10" t="s">
+      <c r="FQ1" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="FO1" s="10" t="s">
+      <c r="FR1" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="FP1" s="10" t="s">
+      <c r="FS1" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="FQ1" s="10" t="s">
+      <c r="FT1" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="FR1" s="10" t="s">
+      <c r="FU1" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="FS1" s="10" t="s">
+      <c r="FV1" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="FT1" s="10" t="s">
+      <c r="FW1" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="FU1" s="10" t="s">
+      <c r="FX1" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="FV1" s="10" t="s">
+      <c r="FY1" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="FW1" s="10" t="s">
+      <c r="FZ1" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="FX1" s="10" t="s">
+      <c r="GA1" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="FY1" s="10" t="s">
+      <c r="GB1" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="FZ1" s="10" t="s">
+      <c r="GC1" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="GA1" s="10" t="s">
+      <c r="GD1" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="GB1" s="10" t="s">
+      <c r="GE1" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="GC1" s="10" t="s">
+      <c r="GF1" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="GD1" s="10" t="s">
+      <c r="GG1" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="GE1" s="19" t="s">
+      <c r="GH1" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="GF1" s="10" t="s">
+      <c r="GI1" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="GG1" s="10" t="s">
+      <c r="GJ1" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="GH1" s="10" t="s">
+      <c r="GK1" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="GI1" s="10" t="s">
+      <c r="GL1" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="GJ1" s="10" t="s">
+      <c r="GM1" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="GK1" s="10" t="s">
+      <c r="GN1" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="GL1" s="10" t="s">
+      <c r="GO1" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="GM1" s="10" t="s">
+      <c r="GP1" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="GN1" s="10" t="s">
+      <c r="GQ1" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="GO1" s="10" t="s">
+      <c r="GR1" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="GP1" s="10" t="s">
+      <c r="GS1" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="GQ1" s="10" t="s">
+      <c r="GT1" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="GR1" s="10" t="s">
+      <c r="GU1" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="GS1" s="10" t="s">
+      <c r="GV1" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="GT1" s="10" t="s">
+      <c r="GW1" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="GU1" s="10" t="s">
+      <c r="GX1" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="GV1" s="10" t="s">
+      <c r="GY1" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="GW1" s="10" t="s">
+      <c r="GZ1" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="GX1" s="10" t="s">
+      <c r="HA1" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="GY1" s="10" t="s">
+      <c r="HB1" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="GZ1" s="10" t="s">
+      <c r="HC1" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="HA1" s="10" t="s">
+      <c r="HD1" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="HB1" s="10" t="s">
+      <c r="HE1" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="HC1" s="10" t="s">
+      <c r="HF1" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="HD1" s="10" t="s">
+      <c r="HG1" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="HE1" s="10" t="s">
+      <c r="HH1" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="HF1" s="10" t="s">
+      <c r="HI1" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="HG1" s="10" t="s">
+      <c r="HJ1" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="HH1" s="10" t="s">
+      <c r="HK1" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="HI1" s="10" t="s">
+      <c r="HL1" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="HJ1" s="10" t="s">
+      <c r="HM1" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="HK1" s="10" t="s">
+      <c r="HN1" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="HL1" s="10" t="s">
+      <c r="HO1" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="HM1" s="10" t="s">
+      <c r="HP1" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="HN1" s="10" t="s">
+      <c r="HQ1" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="HO1" s="10" t="s">
+      <c r="HR1" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="HP1" s="10" t="s">
+      <c r="HS1" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="HQ1" s="10" t="s">
+      <c r="HT1" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="HR1" s="10" t="s">
+      <c r="HU1" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="HS1" s="10" t="s">
+      <c r="HV1" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="HT1" s="10" t="s">
+      <c r="HW1" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="HU1" s="10" t="s">
+      <c r="HX1" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="HV1" s="10" t="s">
+      <c r="HY1" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="HW1" s="10" t="s">
+      <c r="HZ1" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="HX1" s="10" t="s">
+      <c r="IA1" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="HY1" s="10" t="s">
+      <c r="IB1" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="HZ1" s="10" t="s">
+      <c r="IC1" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="IA1" s="10" t="s">
+      <c r="ID1" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="IB1" s="10" t="s">
+      <c r="IE1" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="IC1" s="10" t="s">
+      <c r="IF1" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="ID1" s="20" t="s">
+      <c r="IG1" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="IE1" s="20" t="s">
+      <c r="IH1" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="II1" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="IF1" s="21" t="s">
+      <c r="IJ1" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="IG1" s="21" t="s">
+      <c r="IK1" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="IH1" s="21" t="s">
+      <c r="IL1" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="II1" s="21" t="s">
+      <c r="IM1" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="IJ1" s="21" t="s">
+      <c r="IN1" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="IK1" s="21" t="s">
+      <c r="IO1" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="IL1" s="21" t="s">
+      <c r="IP1" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="IM1" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="IN1" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="IO1" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="IP1" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="IQ1" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="IR1" s="23" t="s">
+      <c r="IQ1" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="IR1" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="23" t="s">
+      <c r="IS1" s="21" t="s">
         <v>251</v>
+      </c>
+      <c r="IT1" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="IU1" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="IV1" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="IW1" s="21"/>
+      <c r="IX1" s="21"/>
+      <c r="IY1" s="21"/>
+      <c r="IZ1" s="21"/>
+      <c r="JA1" s="21"/>
+      <c r="JB1" s="21"/>
+      <c r="JC1" s="21"/>
+      <c r="JD1" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="JE1" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="JF1" s="21" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
